--- a/reference/炎上/tag_list/タグリスト.xlsx
+++ b/reference/炎上/tag_list/タグリスト.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lml25ogk/Desktop/video_analysis/reference/炎上/tag_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0522D86E-7A5A-9840-874C-9536D7E5BB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3F089D-1B31-0F4D-8229-0706D4DCED01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タグ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1783,8 +1796,8 @@
   <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C151" sqref="C151"/>
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137:C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1814,9 +1827,7 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1825,9 +1836,7 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -1836,9 +1845,7 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10">
-        <v>4</v>
-      </c>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -1847,9 +1854,7 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -1858,9 +1863,7 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10">
-        <v>3</v>
-      </c>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -1869,9 +1872,7 @@
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10">
-        <v>2</v>
-      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1880,9 +1881,7 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10">
-        <v>3</v>
-      </c>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -1891,9 +1890,7 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10">
-        <v>3</v>
-      </c>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1902,9 +1899,7 @@
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10">
-        <v>3</v>
-      </c>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1913,9 +1908,7 @@
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10">
-        <v>4</v>
-      </c>
+      <c r="C12" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
@@ -1938,9 +1931,7 @@
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10">
-        <v>2</v>
-      </c>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
@@ -1949,9 +1940,7 @@
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
@@ -1960,9 +1949,7 @@
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
@@ -1971,9 +1958,7 @@
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
@@ -1982,9 +1967,7 @@
       <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
@@ -1993,9 +1976,7 @@
       <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="10">
-        <v>1</v>
-      </c>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
@@ -2004,9 +1985,7 @@
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
@@ -2015,9 +1994,7 @@
       <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="10">
-        <v>1</v>
-      </c>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
@@ -2026,9 +2003,7 @@
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="10">
-        <v>1</v>
-      </c>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
@@ -2037,9 +2012,7 @@
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="10">
-        <v>1</v>
-      </c>
+      <c r="C25" s="10"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
@@ -2062,9 +2035,7 @@
       <c r="B29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="10">
-        <v>1</v>
-      </c>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
@@ -2073,9 +2044,7 @@
       <c r="B30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="10">
-        <v>1</v>
-      </c>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
@@ -2084,9 +2053,7 @@
       <c r="B31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="10">
-        <v>2</v>
-      </c>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
@@ -2095,9 +2062,7 @@
       <c r="B32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="10">
-        <v>1</v>
-      </c>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
@@ -2106,9 +2071,7 @@
       <c r="B33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="10">
-        <v>2</v>
-      </c>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
@@ -2117,9 +2080,7 @@
       <c r="B34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="10">
-        <v>1</v>
-      </c>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
@@ -2128,9 +2089,7 @@
       <c r="B35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="10">
-        <v>1</v>
-      </c>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
@@ -2139,9 +2098,7 @@
       <c r="B36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="10">
-        <v>2</v>
-      </c>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -2150,17 +2107,13 @@
       <c r="B37" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="10">
-        <v>2</v>
-      </c>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="10">
-        <v>1</v>
-      </c>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
@@ -2183,9 +2136,7 @@
       <c r="B42" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="10">
-        <v>2</v>
-      </c>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
@@ -2194,9 +2145,7 @@
       <c r="B43" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="10">
-        <v>3</v>
-      </c>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
@@ -2205,9 +2154,7 @@
       <c r="B44" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="10">
-        <v>2</v>
-      </c>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
@@ -2216,9 +2163,7 @@
       <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="10">
-        <v>2</v>
-      </c>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
@@ -2227,9 +2172,7 @@
       <c r="B46" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="10">
-        <v>3</v>
-      </c>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
@@ -2238,9 +2181,7 @@
       <c r="B47" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="10">
-        <v>3</v>
-      </c>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
@@ -2249,9 +2190,7 @@
       <c r="B48" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="10">
-        <v>2</v>
-      </c>
+      <c r="C48" s="10"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
@@ -2260,9 +2199,7 @@
       <c r="B49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="10">
-        <v>2</v>
-      </c>
+      <c r="C49" s="10"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
@@ -2271,9 +2208,7 @@
       <c r="B50" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="10">
-        <v>3</v>
-      </c>
+      <c r="C50" s="10"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
@@ -2282,17 +2217,13 @@
       <c r="B51" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="10">
-        <v>3</v>
-      </c>
+      <c r="C51" s="10"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="10">
-        <v>1</v>
-      </c>
+      <c r="C52" s="10"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
@@ -2312,9 +2243,7 @@
       <c r="B56" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="10">
-        <v>1</v>
-      </c>
+      <c r="C56" s="10"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
@@ -2323,9 +2252,7 @@
       <c r="B57" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="10">
-        <v>1</v>
-      </c>
+      <c r="C57" s="10"/>
     </row>
     <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
@@ -2334,9 +2261,7 @@
       <c r="B58" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="10">
-        <v>1</v>
-      </c>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
@@ -2345,9 +2270,7 @@
       <c r="B59" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="10">
-        <v>1</v>
-      </c>
+      <c r="C59" s="10"/>
     </row>
     <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
@@ -2356,9 +2279,7 @@
       <c r="B60" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="10">
-        <v>2</v>
-      </c>
+      <c r="C60" s="10"/>
     </row>
     <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
@@ -2367,9 +2288,7 @@
       <c r="B61" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="10">
-        <v>1</v>
-      </c>
+      <c r="C61" s="10"/>
     </row>
     <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
@@ -2378,9 +2297,7 @@
       <c r="B62" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="10">
-        <v>2</v>
-      </c>
+      <c r="C62" s="10"/>
     </row>
     <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
@@ -2389,9 +2306,7 @@
       <c r="B63" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="10">
-        <v>1</v>
-      </c>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
@@ -2400,17 +2315,13 @@
       <c r="B64" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="10">
-        <v>1</v>
-      </c>
+      <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="10">
-        <v>2</v>
-      </c>
+      <c r="C65" s="10"/>
     </row>
     <row r="68" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
@@ -2430,9 +2341,7 @@
       <c r="B69" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="10">
-        <v>1</v>
-      </c>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
@@ -2441,9 +2350,7 @@
       <c r="B70" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="10">
-        <v>1</v>
-      </c>
+      <c r="C70" s="10"/>
     </row>
     <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
@@ -2452,9 +2359,7 @@
       <c r="B71" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C71" s="10">
-        <v>1</v>
-      </c>
+      <c r="C71" s="10"/>
     </row>
     <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
@@ -2463,9 +2368,7 @@
       <c r="B72" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="10">
-        <v>1</v>
-      </c>
+      <c r="C72" s="10"/>
     </row>
     <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
@@ -2474,9 +2377,7 @@
       <c r="B73" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C73" s="10">
-        <v>2</v>
-      </c>
+      <c r="C73" s="10"/>
     </row>
     <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
@@ -2485,9 +2386,7 @@
       <c r="B74" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C74" s="10">
-        <v>1</v>
-      </c>
+      <c r="C74" s="10"/>
     </row>
     <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
@@ -2496,9 +2395,7 @@
       <c r="B75" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="10">
-        <v>2</v>
-      </c>
+      <c r="C75" s="10"/>
     </row>
     <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
@@ -2507,9 +2404,7 @@
       <c r="B76" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="10">
-        <v>1</v>
-      </c>
+      <c r="C76" s="10"/>
     </row>
     <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
@@ -2518,9 +2413,7 @@
       <c r="B77" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="10">
-        <v>1</v>
-      </c>
+      <c r="C77" s="10"/>
     </row>
     <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
@@ -2529,9 +2422,7 @@
       <c r="B78" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C78" s="10">
-        <v>2</v>
-      </c>
+      <c r="C78" s="10"/>
     </row>
     <row r="81" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
@@ -2551,9 +2442,7 @@
       <c r="B82" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="10">
-        <v>1</v>
-      </c>
+      <c r="C82" s="10"/>
     </row>
     <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
@@ -2562,9 +2451,7 @@
       <c r="B83" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="10">
-        <v>2</v>
-      </c>
+      <c r="C83" s="10"/>
     </row>
     <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
@@ -2573,9 +2460,7 @@
       <c r="B84" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="10">
-        <v>3</v>
-      </c>
+      <c r="C84" s="10"/>
     </row>
     <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
@@ -2584,9 +2469,7 @@
       <c r="B85" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="10">
-        <v>2</v>
-      </c>
+      <c r="C85" s="10"/>
     </row>
     <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
@@ -2595,9 +2478,7 @@
       <c r="B86" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="10">
-        <v>2</v>
-      </c>
+      <c r="C86" s="10"/>
     </row>
     <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
@@ -2606,9 +2487,7 @@
       <c r="B87" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="10">
-        <v>3</v>
-      </c>
+      <c r="C87" s="10"/>
     </row>
     <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
@@ -2617,9 +2496,7 @@
       <c r="B88" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="10">
-        <v>2</v>
-      </c>
+      <c r="C88" s="10"/>
     </row>
     <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
@@ -2628,9 +2505,7 @@
       <c r="B89" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="10">
-        <v>1</v>
-      </c>
+      <c r="C89" s="10"/>
     </row>
     <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
@@ -2639,17 +2514,13 @@
       <c r="B90" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="10">
-        <v>1</v>
-      </c>
+      <c r="C90" s="10"/>
     </row>
     <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="10">
-        <v>2</v>
-      </c>
+      <c r="C91" s="10"/>
     </row>
     <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
@@ -2672,9 +2543,7 @@
       <c r="B95" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C95" s="10">
-        <v>1</v>
-      </c>
+      <c r="C95" s="10"/>
     </row>
     <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
@@ -2683,9 +2552,7 @@
       <c r="B96" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C96" s="10">
-        <v>2</v>
-      </c>
+      <c r="C96" s="10"/>
     </row>
     <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
@@ -2694,9 +2561,7 @@
       <c r="B97" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C97" s="10">
-        <v>2</v>
-      </c>
+      <c r="C97" s="10"/>
     </row>
     <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
@@ -2705,9 +2570,7 @@
       <c r="B98" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C98" s="10">
-        <v>1</v>
-      </c>
+      <c r="C98" s="10"/>
     </row>
     <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
@@ -2716,9 +2579,7 @@
       <c r="B99" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C99" s="10">
-        <v>3</v>
-      </c>
+      <c r="C99" s="10"/>
     </row>
     <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
@@ -2727,9 +2588,7 @@
       <c r="B100" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C100" s="10">
-        <v>2</v>
-      </c>
+      <c r="C100" s="10"/>
     </row>
     <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
@@ -2738,9 +2597,7 @@
       <c r="B101" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C101" s="10">
-        <v>1</v>
-      </c>
+      <c r="C101" s="10"/>
     </row>
     <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
@@ -2749,9 +2606,7 @@
       <c r="B102" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C102" s="10">
-        <v>3</v>
-      </c>
+      <c r="C102" s="10"/>
     </row>
     <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
@@ -2760,9 +2615,7 @@
       <c r="B103" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C103" s="10">
-        <v>2</v>
-      </c>
+      <c r="C103" s="10"/>
     </row>
     <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
@@ -2771,17 +2624,13 @@
       <c r="B104" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C104" s="10">
-        <v>1</v>
-      </c>
+      <c r="C104" s="10"/>
     </row>
     <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C105" s="10">
-        <v>2</v>
-      </c>
+      <c r="C105" s="10"/>
     </row>
     <row r="108" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="9" t="s">
@@ -2801,9 +2650,7 @@
       <c r="B109" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C109" s="10">
-        <v>1</v>
-      </c>
+      <c r="C109" s="10"/>
     </row>
     <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
@@ -2812,9 +2659,7 @@
       <c r="B110" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C110" s="10">
-        <v>1</v>
-      </c>
+      <c r="C110" s="10"/>
     </row>
     <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
@@ -2823,9 +2668,7 @@
       <c r="B111" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C111" s="10">
-        <v>1</v>
-      </c>
+      <c r="C111" s="10"/>
     </row>
     <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
@@ -2834,9 +2677,7 @@
       <c r="B112" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C112" s="10">
-        <v>2</v>
-      </c>
+      <c r="C112" s="10"/>
     </row>
     <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
@@ -2845,9 +2686,7 @@
       <c r="B113" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C113" s="10">
-        <v>1</v>
-      </c>
+      <c r="C113" s="10"/>
     </row>
     <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
@@ -2856,9 +2695,7 @@
       <c r="B114" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C114" s="10">
-        <v>1</v>
-      </c>
+      <c r="C114" s="10"/>
     </row>
     <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
@@ -2867,9 +2704,7 @@
       <c r="B115" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C115" s="10">
-        <v>1</v>
-      </c>
+      <c r="C115" s="10"/>
     </row>
     <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
@@ -2878,9 +2713,7 @@
       <c r="B116" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C116" s="10">
-        <v>2</v>
-      </c>
+      <c r="C116" s="10"/>
     </row>
     <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
@@ -2889,9 +2722,7 @@
       <c r="B117" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C117" s="10">
-        <v>1</v>
-      </c>
+      <c r="C117" s="10"/>
     </row>
     <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
@@ -2900,9 +2731,7 @@
       <c r="B118" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C118" s="10">
-        <v>2</v>
-      </c>
+      <c r="C118" s="10"/>
     </row>
     <row r="121" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="9" t="s">
@@ -2922,9 +2751,7 @@
       <c r="B122" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="10">
-        <v>1</v>
-      </c>
+      <c r="C122" s="10"/>
     </row>
     <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
@@ -2933,9 +2760,7 @@
       <c r="B123" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C123" s="10">
-        <v>2</v>
-      </c>
+      <c r="C123" s="10"/>
     </row>
     <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
@@ -2944,9 +2769,7 @@
       <c r="B124" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C124" s="10">
-        <v>1</v>
-      </c>
+      <c r="C124" s="10"/>
     </row>
     <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
@@ -2955,9 +2778,7 @@
       <c r="B125" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C125" s="10">
-        <v>2</v>
-      </c>
+      <c r="C125" s="10"/>
     </row>
     <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
@@ -2966,9 +2787,7 @@
       <c r="B126" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C126" s="10">
-        <v>1</v>
-      </c>
+      <c r="C126" s="10"/>
     </row>
     <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
@@ -2977,9 +2796,7 @@
       <c r="B127" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C127" s="10">
-        <v>1</v>
-      </c>
+      <c r="C127" s="10"/>
     </row>
     <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
@@ -2988,9 +2805,7 @@
       <c r="B128" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C128" s="10">
-        <v>1</v>
-      </c>
+      <c r="C128" s="10"/>
     </row>
     <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
@@ -2999,9 +2814,7 @@
       <c r="B129" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C129" s="10">
-        <v>2</v>
-      </c>
+      <c r="C129" s="10"/>
     </row>
     <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
@@ -3010,9 +2823,7 @@
       <c r="B130" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C130" s="10">
-        <v>1</v>
-      </c>
+      <c r="C130" s="10"/>
     </row>
     <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
@@ -3021,9 +2832,7 @@
       <c r="B131" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C131" s="10">
-        <v>2</v>
-      </c>
+      <c r="C131" s="10"/>
     </row>
     <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
@@ -3032,17 +2841,13 @@
       <c r="B132" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C132" s="10">
-        <v>3</v>
-      </c>
+      <c r="C132" s="10"/>
     </row>
     <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C133" s="10">
-        <v>1</v>
-      </c>
+      <c r="C133" s="10"/>
     </row>
     <row r="136" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="9" t="s">
@@ -3062,9 +2867,7 @@
       <c r="B137" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C137" s="10">
-        <v>2</v>
-      </c>
+      <c r="C137" s="10"/>
     </row>
     <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
@@ -3073,9 +2876,7 @@
       <c r="B138" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C138" s="10">
-        <v>3</v>
-      </c>
+      <c r="C138" s="10"/>
     </row>
     <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
@@ -3084,9 +2885,7 @@
       <c r="B139" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C139" s="10">
-        <v>3</v>
-      </c>
+      <c r="C139" s="10"/>
     </row>
     <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
@@ -3095,9 +2894,7 @@
       <c r="B140" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C140" s="10">
-        <v>4</v>
-      </c>
+      <c r="C140" s="10"/>
     </row>
     <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
@@ -3106,9 +2903,7 @@
       <c r="B141" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C141" s="10">
-        <v>2</v>
-      </c>
+      <c r="C141" s="10"/>
     </row>
     <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
@@ -3117,9 +2912,7 @@
       <c r="B142" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C142" s="10">
-        <v>3</v>
-      </c>
+      <c r="C142" s="10"/>
     </row>
     <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
@@ -3128,9 +2921,7 @@
       <c r="B143" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="10">
-        <v>2</v>
-      </c>
+      <c r="C143" s="10"/>
     </row>
     <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
@@ -3139,9 +2930,7 @@
       <c r="B144" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C144" s="10">
-        <v>3</v>
-      </c>
+      <c r="C144" s="10"/>
     </row>
     <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
@@ -3150,9 +2939,7 @@
       <c r="B145" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C145" s="10">
-        <v>4</v>
-      </c>
+      <c r="C145" s="10"/>
     </row>
     <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
@@ -3161,9 +2948,7 @@
       <c r="B146" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C146" s="10">
-        <v>3</v>
-      </c>
+      <c r="C146" s="10"/>
     </row>
     <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
@@ -3172,9 +2957,7 @@
       <c r="B147" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C147" s="10">
-        <v>2</v>
-      </c>
+      <c r="C147" s="10"/>
     </row>
     <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
@@ -3183,25 +2966,19 @@
       <c r="B148" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C148" s="10">
-        <v>3</v>
-      </c>
+      <c r="C148" s="10"/>
     </row>
     <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C149" s="10">
-        <v>1</v>
-      </c>
+      <c r="C149" s="10"/>
     </row>
     <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C150" s="10">
-        <v>2</v>
-      </c>
+      <c r="C150" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
